--- a/tables/column_name_translations/LT_column_name_translation.xlsx
+++ b/tables/column_name_translations/LT_column_name_translation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE4E054-30D2-47E1-B286-3FF86EBFD60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4016FE0D-DA46-47EB-B535-8D5729491517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38184" yWindow="7944" windowWidth="13824" windowHeight="7224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,7 +545,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>

--- a/tables/column_name_translations/LT_column_name_translation.xlsx
+++ b/tables/column_name_translations/LT_column_name_translation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4016FE0D-DA46-47EB-B535-8D5729491517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE4E054-30D2-47E1-B286-3FF86EBFD60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38184" yWindow="7944" windowWidth="13824" windowHeight="7224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E4" sqref="E4"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,7 +545,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
